--- a/doc/6- Planification.xlsx
+++ b/doc/6- Planification.xlsx
@@ -786,7 +786,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +805,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1242,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1410,7 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1430,16 +1441,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1457,8 +1470,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,217 +1824,217 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
     </row>
     <row r="20" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -2079,7 +2093,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="119" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -2093,7 +2107,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="118"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="45" t="s">
         <v>36</v>
       </c>
@@ -2105,7 +2119,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="45" t="s">
         <v>39</v>
       </c>
@@ -2117,7 +2131,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="45" t="s">
         <v>44</v>
       </c>
@@ -2129,7 +2143,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="118"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="45" t="s">
         <v>52</v>
       </c>
@@ -2141,7 +2155,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="118"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
@@ -2153,7 +2167,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="118"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="45" t="s">
         <v>56</v>
       </c>
@@ -2165,7 +2179,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="45" t="s">
         <v>58</v>
       </c>
@@ -2175,7 +2189,7 @@
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="45" t="s">
         <v>59</v>
       </c>
@@ -2185,7 +2199,7 @@
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="45" t="s">
         <v>60</v>
       </c>
@@ -2195,7 +2209,7 @@
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
@@ -2205,7 +2219,7 @@
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
@@ -2215,7 +2229,7 @@
       <c r="F16" s="47"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="118"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="45" t="s">
         <v>64</v>
       </c>
@@ -2227,7 +2241,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="65" t="s">
         <v>70</v>
       </c>
@@ -2235,30 +2249,30 @@
       <c r="F18" s="47"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="118"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="45"/>
       <c r="E19" s="64"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="118"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="45"/>
       <c r="E20" s="64"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="118"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="45"/>
       <c r="F21" s="47"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="118"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="119" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -2268,7 +2282,7 @@
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="118"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="45" t="s">
         <v>79</v>
       </c>
@@ -2276,55 +2290,55 @@
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="118"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="118"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="118"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="118"/>
+      <c r="C28" s="119"/>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="118"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="118"/>
+      <c r="C30" s="119"/>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="118"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="118"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="119" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -2338,7 +2352,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="118"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="45" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2364,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="118"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="45" t="s">
         <v>71</v>
       </c>
@@ -2360,7 +2374,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="118"/>
+      <c r="C36" s="119"/>
       <c r="D36" s="45" t="s">
         <v>78</v>
       </c>
@@ -2368,7 +2382,7 @@
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="118"/>
+      <c r="C37" s="119"/>
       <c r="D37" s="85" t="s">
         <v>81</v>
       </c>
@@ -2376,13 +2390,13 @@
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="118"/>
+      <c r="C38" s="119"/>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="118"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
@@ -2520,11 +2534,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="120"/>
@@ -2973,6 +2987,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:F42"/>
@@ -2980,11 +2999,6 @@
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
@@ -3270,16 +3284,16 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="52"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="61"/>
@@ -3829,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3851,35 +3865,35 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
     </row>
     <row r="8" spans="2:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3903,10 +3917,10 @@
       <c r="C10" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -3915,7 +3929,7 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="113">
         <v>1</v>
       </c>
     </row>
@@ -3923,10 +3937,10 @@
       <c r="C11" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -3935,7 +3949,7 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="115">
+      <c r="H11" s="114">
         <v>1</v>
       </c>
       <c r="I11"/>
@@ -3944,10 +3958,10 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -3956,7 +3970,7 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="115">
+      <c r="H12" s="114">
         <v>1</v>
       </c>
     </row>
@@ -3964,10 +3978,10 @@
       <c r="C13" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -3976,7 +3990,7 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="114">
         <v>1</v>
       </c>
     </row>
@@ -3984,10 +3998,10 @@
       <c r="C14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3996,7 +4010,7 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4004,22 +4018,22 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="115"/>
+      <c r="H15" s="114"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -4028,7 +4042,7 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4036,10 +4050,10 @@
       <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -4048,7 +4062,7 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="115">
+      <c r="H17" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4056,10 +4070,10 @@
       <c r="C18" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -4068,7 +4082,7 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="115">
+      <c r="H18" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4076,10 +4090,10 @@
       <c r="C19" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -4088,7 +4102,7 @@
       <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="115">
+      <c r="H19" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4096,22 +4110,22 @@
       <c r="C20" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="127"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="115"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="106" t="s">
         <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -4120,7 +4134,7 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="115">
+      <c r="H21" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4128,10 +4142,10 @@
       <c r="C22" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="108" t="s">
+      <c r="E22" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -4140,7 +4154,7 @@
       <c r="G22" s="5">
         <v>1</v>
       </c>
-      <c r="H22" s="115">
+      <c r="H22" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4148,10 +4162,10 @@
       <c r="C23" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -4160,7 +4174,7 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="115">
+      <c r="H23" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4168,10 +4182,10 @@
       <c r="C24" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="108" t="s">
+      <c r="E24" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -4180,7 +4194,7 @@
       <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="H24" s="115">
+      <c r="H24" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4188,10 +4202,10 @@
       <c r="C25" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -4200,7 +4214,7 @@
       <c r="G25" s="5">
         <v>1</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4208,10 +4222,10 @@
       <c r="C26" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -4220,7 +4234,7 @@
       <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4228,10 +4242,10 @@
       <c r="C27" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -4240,7 +4254,7 @@
       <c r="G27" s="5">
         <v>1</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4248,10 +4262,10 @@
       <c r="C28" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -4260,7 +4274,7 @@
       <c r="G28" s="5">
         <v>1</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4268,10 +4282,10 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -4280,7 +4294,7 @@
       <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4288,10 +4302,10 @@
       <c r="C30" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -4300,7 +4314,7 @@
       <c r="G30" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4308,10 +4322,10 @@
       <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="106" t="s">
         <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -4320,7 +4334,7 @@
       <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4328,10 +4342,10 @@
       <c r="C32" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="E32" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -4340,7 +4354,7 @@
       <c r="G32" s="5">
         <v>1</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4348,17 +4362,17 @@
       <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="108"/>
+      <c r="E33" s="107"/>
       <c r="F33" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4366,10 +4380,10 @@
       <c r="C34" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="108" t="s">
+      <c r="E34" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -4378,7 +4392,7 @@
       <c r="G34" s="5">
         <v>1</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4386,34 +4400,34 @@
       <c r="C35" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="108" t="s">
+      <c r="E35" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="H35" s="115"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="108" t="s">
+      <c r="E36" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="115"/>
+      <c r="H36" s="114"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="108" t="s">
+      <c r="E37" s="107" t="s">
         <v>146</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -4422,15 +4436,15 @@
       <c r="G37" s="5">
         <v>1</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="108" t="s">
+      <c r="E38" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -4439,15 +4453,15 @@
       <c r="G38" s="5">
         <v>1</v>
       </c>
-      <c r="H38" s="115">
+      <c r="H38" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="108" t="s">
+      <c r="E39" s="107" t="s">
         <v>179</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -4456,15 +4470,15 @@
       <c r="G39" s="5">
         <v>1</v>
       </c>
-      <c r="H39" s="115">
+      <c r="H39" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -4473,15 +4487,15 @@
       <c r="G40" s="5">
         <v>2</v>
       </c>
-      <c r="H40" s="115">
+      <c r="H40" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D41" s="104" t="s">
+      <c r="D41" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -4490,15 +4504,15 @@
       <c r="G41" s="5">
         <v>2</v>
       </c>
-      <c r="H41" s="115">
+      <c r="H41" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -4507,15 +4521,15 @@
       <c r="G42" s="5">
         <v>2</v>
       </c>
-      <c r="H42" s="115">
+      <c r="H42" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -4524,15 +4538,15 @@
       <c r="G43" s="5">
         <v>2</v>
       </c>
-      <c r="H43" s="115">
+      <c r="H43" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="E44" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -4541,15 +4555,15 @@
       <c r="G44" s="5">
         <v>2</v>
       </c>
-      <c r="H44" s="115">
+      <c r="H44" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -4558,15 +4572,15 @@
       <c r="G45" s="5">
         <v>2</v>
       </c>
-      <c r="H45" s="115">
+      <c r="H45" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="108" t="s">
+      <c r="E46" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -4575,15 +4589,15 @@
       <c r="G46" s="5">
         <v>2</v>
       </c>
-      <c r="H46" s="115">
+      <c r="H46" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="108" t="s">
+      <c r="E47" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -4592,15 +4606,15 @@
       <c r="G47" s="5">
         <v>2</v>
       </c>
-      <c r="H47" s="115">
+      <c r="H47" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -4609,15 +4623,15 @@
       <c r="G48" s="5">
         <v>2</v>
       </c>
-      <c r="H48" s="115">
+      <c r="H48" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -4626,15 +4640,15 @@
       <c r="G49" s="5">
         <v>2</v>
       </c>
-      <c r="H49" s="115">
+      <c r="H49" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="108" t="s">
+      <c r="E50" s="107" t="s">
         <v>169</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -4643,75 +4657,75 @@
       <c r="G50" s="5">
         <v>2</v>
       </c>
-      <c r="H50" s="115">
+      <c r="H50" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="105" t="s">
+      <c r="D51" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="E51" s="108" t="s">
+      <c r="E51" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="105" t="s">
         <v>174</v>
       </c>
       <c r="G51" s="5">
         <v>2</v>
       </c>
-      <c r="H51" s="115">
+      <c r="H51" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="105" t="s">
+      <c r="D52" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="108" t="s">
+      <c r="E52" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="106" t="s">
+      <c r="F52" s="105" t="s">
         <v>204</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
       </c>
-      <c r="H52" s="115">
+      <c r="H52" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D53" s="105" t="s">
+      <c r="D53" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="109" t="s">
+      <c r="E53" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="106" t="s">
+      <c r="F53" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="106">
+      <c r="G53" s="105">
         <v>3</v>
       </c>
-      <c r="H53" s="115">
+      <c r="H53" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="106" t="s">
+      <c r="D54" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="106" t="s">
+      <c r="E54" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="106" t="s">
+      <c r="F54" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="106">
+      <c r="G54" s="105">
         <v>3</v>
       </c>
-      <c r="H54" s="115">
+      <c r="H54" s="114">
         <v>1</v>
       </c>
     </row>
@@ -4728,12 +4742,12 @@
       <c r="G55" s="5">
         <v>3</v>
       </c>
-      <c r="H55" s="115">
+      <c r="H55" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="126" t="s">
+      <c r="D56" s="116" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -4745,12 +4759,12 @@
       <c r="G56" s="5">
         <v>3</v>
       </c>
-      <c r="H56" s="115">
+      <c r="H56" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="126" t="s">
+      <c r="D57" s="116" t="s">
         <v>209</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -4762,12 +4776,12 @@
       <c r="G57" s="5">
         <v>3</v>
       </c>
-      <c r="H57" s="115">
+      <c r="H57" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="126" t="s">
+      <c r="D58" s="116" t="s">
         <v>211</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4779,12 +4793,12 @@
       <c r="G58" s="5">
         <v>3</v>
       </c>
-      <c r="H58" s="115">
+      <c r="H58" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="116" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -4796,7 +4810,7 @@
       <c r="G59" s="5">
         <v>3</v>
       </c>
-      <c r="H59" s="115">
+      <c r="H59" s="114">
         <v>1</v>
       </c>
     </row>
@@ -5021,8 +5035,8 @@
       <c r="C14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="63"/>
       <c r="G14" s="62"/>
       <c r="H14" s="36"/>
@@ -5034,8 +5048,8 @@
       <c r="C15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="112"/>
       <c r="F15" s="63"/>
       <c r="G15" s="62"/>
       <c r="H15" s="36"/>
@@ -5047,8 +5061,8 @@
       <c r="C16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="63"/>
       <c r="G16" s="62"/>
       <c r="H16" s="36"/>
@@ -5061,8 +5075,8 @@
         <v>106</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="63"/>
       <c r="G17" s="62"/>
       <c r="H17" s="36"/>
@@ -5074,8 +5088,8 @@
       <c r="C18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="112"/>
       <c r="F18" s="63"/>
       <c r="G18" s="62"/>
       <c r="H18" s="36"/>
@@ -5087,8 +5101,8 @@
       <c r="C19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="63"/>
       <c r="G19" s="62"/>
       <c r="H19" s="36"/>
@@ -5101,8 +5115,8 @@
         <v>94</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="113"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="63"/>
       <c r="G20" s="62"/>
       <c r="H20" s="36"/>
@@ -5114,8 +5128,8 @@
       <c r="C21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="63"/>
       <c r="G21" s="62"/>
       <c r="H21" s="36"/>
@@ -5128,8 +5142,8 @@
         <v>112</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="63"/>
       <c r="G22" s="62"/>
       <c r="H22" s="36"/>
@@ -5141,8 +5155,8 @@
       <c r="C23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="63"/>
       <c r="G23" s="62"/>
       <c r="H23" s="36"/>
@@ -5155,8 +5169,8 @@
         <v>92</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="63"/>
       <c r="G24" s="62"/>
       <c r="H24" s="36"/>
@@ -5168,8 +5182,8 @@
       <c r="C25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="113"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="63"/>
       <c r="G25" s="62"/>
       <c r="H25" s="36"/>
@@ -5181,8 +5195,8 @@
       <c r="C26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="112"/>
       <c r="F26" s="63"/>
       <c r="G26" s="62"/>
       <c r="H26" s="36"/>
@@ -5195,8 +5209,8 @@
         <v>103</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="63"/>
       <c r="G27" s="62"/>
       <c r="H27" s="36"/>
@@ -5208,8 +5222,8 @@
       <c r="C28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="112"/>
       <c r="F28" s="63"/>
       <c r="G28" s="62"/>
       <c r="H28" s="36"/>
@@ -5222,8 +5236,8 @@
         <v>104</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="113"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="63"/>
       <c r="G29" s="62"/>
       <c r="H29" s="36"/>
@@ -5235,8 +5249,8 @@
       <c r="C30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="113"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="63"/>
       <c r="G30" s="62"/>
       <c r="H30" s="36"/>
@@ -5249,8 +5263,8 @@
         <v>116</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="113"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="63"/>
       <c r="G31" s="62"/>
       <c r="H31" s="36"/>
@@ -5262,8 +5276,8 @@
       <c r="C32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="113"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="63"/>
       <c r="G32" s="62"/>
       <c r="H32" s="36"/>
@@ -5276,8 +5290,8 @@
         <v>118</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="113"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="112"/>
       <c r="F33" s="63"/>
       <c r="G33" s="62"/>
       <c r="H33" s="36"/>
@@ -5289,8 +5303,8 @@
       <c r="C34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="112"/>
       <c r="F34" s="63"/>
       <c r="G34" s="62"/>
       <c r="H34" s="36"/>
@@ -5303,8 +5317,8 @@
         <v>116</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="113"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="63"/>
       <c r="G35" s="62"/>
       <c r="H35" s="36"/>
@@ -5316,8 +5330,8 @@
       <c r="C36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="113"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="112"/>
       <c r="F36" s="63"/>
       <c r="G36" s="62"/>
       <c r="H36" s="36"/>
@@ -5330,8 +5344,8 @@
         <v>94</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="113"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="112"/>
       <c r="F37" s="63"/>
       <c r="G37" s="62"/>
       <c r="H37" s="36"/>
@@ -5343,8 +5357,8 @@
       <c r="C38" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="113"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="112"/>
       <c r="F38" s="63"/>
       <c r="G38" s="62"/>
       <c r="H38" s="36"/>
@@ -5357,8 +5371,8 @@
         <v>127</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="113"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="112"/>
       <c r="F39" s="63"/>
       <c r="G39" s="62"/>
       <c r="H39" s="36"/>
@@ -5370,8 +5384,8 @@
       <c r="C40" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="113"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="112"/>
       <c r="F40" s="63"/>
       <c r="G40" s="62"/>
       <c r="H40" s="36"/>
@@ -5384,7 +5398,7 @@
         <v>90</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="110"/>
+      <c r="D41" s="109"/>
       <c r="E41" s="36"/>
       <c r="F41" s="63"/>
       <c r="G41" s="62"/>
@@ -5397,12 +5411,12 @@
       <c r="C42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="113"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="112"/>
       <c r="F42" s="63"/>
       <c r="G42" s="62"/>
       <c r="H42" s="36"/>
-      <c r="I42" s="112"/>
+      <c r="I42" s="111"/>
       <c r="K42" s="36"/>
       <c r="N42" s="36"/>
     </row>
@@ -5411,12 +5425,12 @@
       <c r="C43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="113"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="112"/>
       <c r="F43" s="63"/>
       <c r="G43" s="62"/>
       <c r="H43" s="36"/>
-      <c r="I43" s="112"/>
+      <c r="I43" s="111"/>
       <c r="K43" s="36"/>
       <c r="N43" s="36"/>
     </row>
@@ -5426,12 +5440,12 @@
         <v>94</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="113"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="112"/>
       <c r="F44" s="63"/>
       <c r="G44" s="62"/>
       <c r="H44" s="36"/>
-      <c r="I44" s="112"/>
+      <c r="I44" s="111"/>
       <c r="K44" s="36"/>
       <c r="N44" s="36"/>
     </row>
@@ -5440,12 +5454,12 @@
       <c r="C45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="113"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="112"/>
       <c r="F45" s="63"/>
       <c r="G45" s="62"/>
       <c r="H45" s="36"/>
-      <c r="I45" s="112"/>
+      <c r="I45" s="111"/>
       <c r="K45" s="36"/>
       <c r="N45" s="36"/>
     </row>
@@ -5455,11 +5469,11 @@
         <v>103</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="113"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="112"/>
       <c r="F46" s="63"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="112"/>
+      <c r="I46" s="111"/>
       <c r="K46" s="36"/>
       <c r="N46" s="36"/>
     </row>
@@ -5468,12 +5482,12 @@
       <c r="C47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="113"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="112"/>
       <c r="F47" s="63"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
       <c r="K47" s="36"/>
       <c r="N47" s="36"/>
     </row>
@@ -5483,12 +5497,12 @@
         <v>93</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="113"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="112"/>
       <c r="F48" s="63"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
       <c r="K48" s="36"/>
       <c r="N48" s="36"/>
     </row>
@@ -5497,12 +5511,12 @@
       <c r="C49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="113"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="112"/>
       <c r="F49" s="63"/>
       <c r="H49" s="36"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
       <c r="K49" s="36"/>
       <c r="N49" s="36"/>
     </row>
@@ -5512,12 +5526,12 @@
         <v>129</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="113"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="112"/>
       <c r="F50" s="63"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
       <c r="K50" s="36"/>
       <c r="N50" s="36"/>
     </row>
@@ -5526,12 +5540,12 @@
       <c r="C51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="113"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="63"/>
       <c r="H51" s="36"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
       <c r="K51" s="36"/>
       <c r="N51" s="36"/>
     </row>
@@ -5541,7 +5555,7 @@
         <v>91</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="110"/>
+      <c r="D52" s="109"/>
       <c r="E52" s="36"/>
       <c r="F52" s="63"/>
       <c r="H52" s="36"/>
@@ -5553,12 +5567,12 @@
       <c r="C53" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="113"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="112"/>
       <c r="F53" s="63"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
       <c r="K53" s="36"/>
       <c r="N53" s="36"/>
     </row>
@@ -5568,8 +5582,8 @@
         <v>94</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="113"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="112"/>
       <c r="H54" s="36"/>
       <c r="K54" s="36"/>
       <c r="N54" s="36"/>
@@ -5579,11 +5593,11 @@
       <c r="C55" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="110"/>
-      <c r="E55" s="113"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="112"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
       <c r="K55" s="36"/>
       <c r="N55" s="36"/>
     </row>
@@ -5593,11 +5607,11 @@
         <v>95</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="110"/>
+      <c r="D56" s="109"/>
       <c r="E56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
       <c r="K56" s="36"/>
       <c r="N56" s="36"/>
     </row>
@@ -5606,11 +5620,11 @@
       <c r="C57" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="110"/>
-      <c r="E57" s="113"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="112"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
       <c r="K57" s="36"/>
       <c r="N57" s="36"/>
     </row>
@@ -5619,11 +5633,11 @@
       <c r="C58" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="110"/>
-      <c r="E58" s="113"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="112"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
       <c r="K58" s="36"/>
       <c r="N58" s="36"/>
     </row>
@@ -5633,11 +5647,11 @@
         <v>134</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="113"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="112"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
       <c r="K59" s="36"/>
       <c r="N59" s="36"/>
     </row>
@@ -5646,11 +5660,11 @@
       <c r="C60" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="110"/>
-      <c r="E60" s="113"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="112"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
       <c r="K60" s="36"/>
       <c r="N60" s="36"/>
     </row>
@@ -5659,11 +5673,11 @@
       <c r="C61" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="110"/>
-      <c r="E61" s="113"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="112"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
       <c r="K61" s="36"/>
       <c r="N61" s="36"/>
     </row>
@@ -5673,11 +5687,11 @@
         <v>98</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="113"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="112"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
       <c r="K62" s="36"/>
       <c r="N62" s="36"/>
     </row>
@@ -5686,11 +5700,11 @@
       <c r="C63" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="110"/>
-      <c r="E63" s="113"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="112"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="111"/>
       <c r="K63" s="36"/>
       <c r="N63" s="36"/>
     </row>
@@ -5699,11 +5713,11 @@
       <c r="C64" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="110"/>
-      <c r="E64" s="113"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="112"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="111"/>
       <c r="K64" s="36"/>
       <c r="N64" s="36"/>
     </row>
@@ -5713,11 +5727,11 @@
         <v>96</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="113"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="112"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
       <c r="K65" s="36"/>
       <c r="N65" s="36"/>
     </row>
@@ -5726,11 +5740,11 @@
       <c r="C66" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="110"/>
-      <c r="E66" s="113"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="112"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="111"/>
       <c r="K66" s="36"/>
       <c r="N66" s="36"/>
     </row>
@@ -5740,11 +5754,11 @@
         <v>97</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="113"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="112"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
       <c r="K67" s="36"/>
       <c r="N67" s="36"/>
     </row>
@@ -5753,11 +5767,11 @@
       <c r="C68" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="110"/>
-      <c r="E68" s="113"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="112"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="112"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
       <c r="K68" s="36"/>
       <c r="N68" s="36"/>
     </row>
@@ -5767,11 +5781,11 @@
         <v>99</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="113"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="112"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="111"/>
       <c r="K69" s="36"/>
       <c r="N69" s="36"/>
     </row>
@@ -5780,11 +5794,11 @@
       <c r="C70" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="110"/>
-      <c r="E70" s="113"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="112"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
       <c r="K70" s="36"/>
       <c r="N70" s="36"/>
     </row>
@@ -5793,11 +5807,11 @@
       <c r="C71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="110"/>
-      <c r="E71" s="113"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="112"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="112"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
       <c r="K71" s="36"/>
       <c r="N71" s="36"/>
     </row>
@@ -5807,10 +5821,10 @@
         <v>100</v>
       </c>
       <c r="C72" s="10"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="113"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="112"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="112"/>
+      <c r="I72" s="111"/>
       <c r="K72" s="36"/>
       <c r="N72" s="36"/>
     </row>
@@ -5819,12 +5833,12 @@
       <c r="C73" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="110"/>
-      <c r="E73" s="113"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="112"/>
       <c r="H73" s="36"/>
       <c r="K73" s="36"/>
-      <c r="L73" s="112"/>
-      <c r="M73" s="112"/>
+      <c r="L73" s="111"/>
+      <c r="M73" s="111"/>
       <c r="N73" s="36"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -5832,12 +5846,12 @@
       <c r="C74" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="110"/>
-      <c r="E74" s="113"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="112"/>
       <c r="H74" s="36"/>
       <c r="K74" s="36"/>
-      <c r="L74" s="112"/>
-      <c r="M74" s="112"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="111"/>
       <c r="N74" s="36"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -5846,12 +5860,12 @@
         <v>101</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="113"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="112"/>
       <c r="H75" s="36"/>
       <c r="K75" s="36"/>
-      <c r="L75" s="112"/>
-      <c r="M75" s="112"/>
+      <c r="L75" s="111"/>
+      <c r="M75" s="111"/>
       <c r="N75" s="36"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -5859,12 +5873,12 @@
       <c r="C76" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="110"/>
-      <c r="E76" s="113"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="112"/>
       <c r="H76" s="36"/>
       <c r="K76" s="36"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="112"/>
+      <c r="L76" s="111"/>
+      <c r="M76" s="111"/>
       <c r="N76" s="36"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -5872,12 +5886,12 @@
       <c r="C77" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="110"/>
-      <c r="E77" s="113"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="112"/>
       <c r="H77" s="36"/>
       <c r="K77" s="36"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
       <c r="N77" s="36"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5886,12 +5900,12 @@
         <v>102</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="113"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="112"/>
       <c r="H78" s="36"/>
       <c r="K78" s="36"/>
-      <c r="L78" s="112"/>
-      <c r="M78" s="112"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
       <c r="N78" s="36"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -5899,19 +5913,19 @@
       <c r="C79" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="110"/>
-      <c r="E79" s="113"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="112"/>
       <c r="H79" s="36"/>
       <c r="K79" s="36"/>
-      <c r="L79" s="112"/>
-      <c r="M79" s="112"/>
+      <c r="L79" s="111"/>
+      <c r="M79" s="111"/>
       <c r="N79" s="36"/>
     </row>
     <row r="80" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="39"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="111"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="41"/>
       <c r="F80" s="40"/>
       <c r="G80" s="40"/>

--- a/doc/6- Planification.xlsx
+++ b/doc/6- Planification.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="230">
   <si>
     <t>Priorité</t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>alex</t>
+  </si>
+  <si>
+    <t>alexandre</t>
+  </si>
+  <si>
+    <t>Laurence+Antoine+Alex</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Antoine Alex</t>
   </si>
 </sst>
 </file>
@@ -786,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,12 +823,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1254,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1440,7 +1446,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1472,7 +1477,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,217 +1829,217 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
     </row>
     <row r="20" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -2093,7 +2098,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="118" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -2107,7 +2112,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="119"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="45" t="s">
         <v>36</v>
       </c>
@@ -2119,7 +2124,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="119"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="45" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +2136,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="119"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="45" t="s">
         <v>44</v>
       </c>
@@ -2143,7 +2148,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="119"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="45" t="s">
         <v>52</v>
       </c>
@@ -2155,7 +2160,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="119"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +2172,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="119"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="45" t="s">
         <v>56</v>
       </c>
@@ -2179,7 +2184,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="119"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="45" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2194,7 @@
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="119"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="45" t="s">
         <v>59</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="119"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="45" t="s">
         <v>60</v>
       </c>
@@ -2209,7 +2214,7 @@
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="119"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="119"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
@@ -2229,7 +2234,7 @@
       <c r="F16" s="47"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="119"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="45" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +2246,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="119"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="65" t="s">
         <v>70</v>
       </c>
@@ -2249,30 +2254,30 @@
       <c r="F18" s="47"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="119"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="45"/>
       <c r="E19" s="64"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="119"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="45"/>
       <c r="E20" s="64"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="119"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="45"/>
       <c r="F21" s="47"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="119"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="118" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -2282,7 +2287,7 @@
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="119"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="45" t="s">
         <v>79</v>
       </c>
@@ -2290,55 +2295,55 @@
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="119"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="119"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="119"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="119"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="119"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="119"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="119"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="119"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="118" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -2352,7 +2357,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="119"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="45" t="s">
         <v>69</v>
       </c>
@@ -2364,7 +2369,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="119"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="45" t="s">
         <v>71</v>
       </c>
@@ -2374,7 +2379,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="119"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="45" t="s">
         <v>78</v>
       </c>
@@ -2382,7 +2387,7 @@
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="119"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="85" t="s">
         <v>81</v>
       </c>
@@ -2390,13 +2395,13 @@
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="119"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="119"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
@@ -2534,17 +2539,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
@@ -2627,10 +2632,10 @@
       <c r="F17" s="83"/>
     </row>
     <row r="19" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67"/>
@@ -2759,10 +2764,10 @@
       <c r="F40" s="83"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="67"/>
@@ -2825,10 +2830,10 @@
       <c r="F52" s="83"/>
     </row>
     <row r="54" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
     </row>
     <row r="55" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="67"/>
@@ -2885,10 +2890,10 @@
       <c r="F63" s="83"/>
     </row>
     <row r="65" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
     </row>
     <row r="66" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="67"/>
@@ -2945,8 +2950,8 @@
       <c r="F74" s="83"/>
     </row>
     <row r="76" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="119"/>
       <c r="I76" s="95"/>
     </row>
     <row r="77" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3284,16 +3289,16 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="52"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="61"/>
@@ -3843,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3865,35 +3870,35 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
     </row>
     <row r="8" spans="2:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3917,7 +3922,7 @@
       <c r="C10" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="126" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="106" t="s">
@@ -3937,7 +3942,7 @@
       <c r="C11" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="127" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="107" t="s">
@@ -3958,7 +3963,7 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="127" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="107" t="s">
@@ -3978,7 +3983,7 @@
       <c r="C13" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="127" t="s">
         <v>150</v>
       </c>
       <c r="E13" s="107" t="s">
@@ -3998,7 +4003,7 @@
       <c r="C14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="127" t="s">
         <v>154</v>
       </c>
       <c r="E14" s="107" t="s">
@@ -4018,7 +4023,7 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="127" t="s">
         <v>207</v>
       </c>
       <c r="E15" s="107"/>
@@ -4030,7 +4035,7 @@
       <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="127" t="s">
         <v>153</v>
       </c>
       <c r="E16" s="107" t="s">
@@ -4050,7 +4055,7 @@
       <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="127" t="s">
         <v>170</v>
       </c>
       <c r="E17" s="107" t="s">
@@ -4070,7 +4075,7 @@
       <c r="C18" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="127" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="107" t="s">
@@ -4090,7 +4095,7 @@
       <c r="C19" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="127" t="s">
         <v>152</v>
       </c>
       <c r="E19" s="107" t="s">
@@ -4110,10 +4115,10 @@
       <c r="C20" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="117"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="114"/>
@@ -4122,7 +4127,7 @@
       <c r="C21" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="127" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="106" t="s">
@@ -4142,7 +4147,7 @@
       <c r="C22" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="127" t="s">
         <v>159</v>
       </c>
       <c r="E22" s="107" t="s">
@@ -4162,7 +4167,7 @@
       <c r="C23" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="127" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="107" t="s">
@@ -4182,7 +4187,7 @@
       <c r="C24" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="127" t="s">
         <v>156</v>
       </c>
       <c r="E24" s="107" t="s">
@@ -4202,7 +4207,7 @@
       <c r="C25" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="128" t="s">
         <v>160</v>
       </c>
       <c r="E25" s="107" t="s">
@@ -4222,7 +4227,7 @@
       <c r="C26" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="127" t="s">
         <v>161</v>
       </c>
       <c r="E26" s="107" t="s">
@@ -4242,7 +4247,7 @@
       <c r="C27" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="127" t="s">
         <v>162</v>
       </c>
       <c r="E27" s="107" t="s">
@@ -4262,7 +4267,7 @@
       <c r="C28" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="127" t="s">
         <v>205</v>
       </c>
       <c r="E28" s="107" t="s">
@@ -4282,7 +4287,7 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="128" t="s">
+      <c r="D29" s="127" t="s">
         <v>165</v>
       </c>
       <c r="E29" s="107" t="s">
@@ -4302,7 +4307,7 @@
       <c r="C30" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="127" t="s">
         <v>163</v>
       </c>
       <c r="E30" s="107" t="s">
@@ -4322,7 +4327,7 @@
       <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="127" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="106" t="s">
@@ -4342,7 +4347,7 @@
       <c r="C32" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="128" t="s">
+      <c r="D32" s="127" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="107" t="s">
@@ -4362,7 +4367,7 @@
       <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="127" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="107"/>
@@ -4380,7 +4385,7 @@
       <c r="C34" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="128" t="s">
+      <c r="D34" s="127" t="s">
         <v>157</v>
       </c>
       <c r="E34" s="107" t="s">
@@ -4400,7 +4405,7 @@
       <c r="C35" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="128" t="s">
+      <c r="D35" s="127" t="s">
         <v>212</v>
       </c>
       <c r="E35" s="107" t="s">
@@ -4413,7 +4418,10 @@
       <c r="H35" s="114"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D36" s="103" t="s">
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="127" t="s">
         <v>210</v>
       </c>
       <c r="E36" s="107" t="s">
@@ -4424,7 +4432,10 @@
       <c r="H36" s="114"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="103" t="s">
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="127" t="s">
         <v>166</v>
       </c>
       <c r="E37" s="107" t="s">
@@ -4441,7 +4452,10 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="103" t="s">
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="127" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="107" t="s">
@@ -4468,14 +4482,14 @@
         <v>199</v>
       </c>
       <c r="G39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="103" t="s">
+      <c r="D40" s="127" t="s">
         <v>181</v>
       </c>
       <c r="E40" s="107" t="s">
@@ -4526,6 +4540,9 @@
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
       <c r="D43" s="103" t="s">
         <v>185</v>
       </c>
@@ -4543,6 +4560,9 @@
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
       <c r="D44" s="103" t="s">
         <v>184</v>
       </c>
@@ -4577,7 +4597,7 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="127" t="s">
         <v>187</v>
       </c>
       <c r="E46" s="107" t="s">
@@ -4627,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D49" s="103" t="s">
         <v>190</v>
       </c>
@@ -4644,7 +4664,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
       <c r="D50" s="103" t="s">
         <v>191</v>
       </c>
@@ -4661,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D51" s="104" t="s">
         <v>192</v>
       </c>
@@ -4678,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D52" s="104" t="s">
         <v>193</v>
       </c>
@@ -4695,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D53" s="104" t="s">
         <v>200</v>
       </c>
@@ -4712,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D54" s="105" t="s">
         <v>201</v>
       </c>
@@ -4729,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D55" s="5" t="s">
         <v>202</v>
       </c>
@@ -4746,8 +4769,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D56" s="116" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D56" s="115" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -4763,8 +4786,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D57" s="116" t="s">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D57" s="115" t="s">
         <v>209</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -4780,8 +4803,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="116" t="s">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="115" t="s">
         <v>211</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4797,8 +4823,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="116" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D59" s="115" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="5" t="s">

--- a/doc/6- Planification.xlsx
+++ b/doc/6- Planification.xlsx
@@ -3848,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/doc/6- Planification.xlsx
+++ b/doc/6- Planification.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
   <si>
     <t>Priorité</t>
   </si>
@@ -286,204 +286,9 @@
     <t>position</t>
   </si>
   <si>
-    <t>Afficher les options</t>
-  </si>
-  <si>
     <t>chronomètre (Affichage)</t>
   </si>
   <si>
-    <t>Afficher les crédits</t>
-  </si>
-  <si>
-    <t>Vue</t>
-  </si>
-  <si>
-    <t>Modele</t>
-  </si>
-  <si>
-    <t>Controlleur</t>
-  </si>
-  <si>
-    <t>Pion</t>
-  </si>
-  <si>
-    <t>Carre</t>
-  </si>
-  <si>
-    <t>Bordure</t>
-  </si>
-  <si>
-    <t>Partie</t>
-  </si>
-  <si>
-    <t>AfficherFinPartie</t>
-  </si>
-  <si>
-    <t>changementVitesse</t>
-  </si>
-  <si>
-    <t>ChangementPosition (dans Carre)</t>
-  </si>
-  <si>
-    <t>AfficherEtatJeu (Bordure)</t>
-  </si>
-  <si>
-    <t>Jouer</t>
-  </si>
-  <si>
-    <t>AfficherSauvegarde</t>
-  </si>
-  <si>
-    <t>EcrireFichier</t>
-  </si>
-  <si>
-    <t>LireFichier</t>
-  </si>
-  <si>
-    <t>AfficherMenuPrincipal</t>
-  </si>
-  <si>
-    <t>AfficherMenuHighScore</t>
-  </si>
-  <si>
-    <t>AfficherCredit</t>
-  </si>
-  <si>
-    <t>AfficherMenuOptions</t>
-  </si>
-  <si>
-    <t>ChangementOptions</t>
-  </si>
-  <si>
-    <t>Construire modele initiale des classes  (Attribut + squellette)</t>
-  </si>
-  <si>
-    <t>AfficherEtatJeu</t>
-  </si>
-  <si>
-    <t>Afficher terrain</t>
-  </si>
-  <si>
-    <t>CommnecerPartie</t>
-  </si>
-  <si>
-    <t>Initialisation du carré</t>
-  </si>
-  <si>
-    <t>Afficher carré</t>
-  </si>
-  <si>
-    <t>Création d'un objet Partie</t>
-  </si>
-  <si>
-    <t>Appel d'afficherEtatJeu</t>
-  </si>
-  <si>
-    <t>Passer les x et y de l'event à carre</t>
-  </si>
-  <si>
-    <t>ChangementPositionCarre (dans Controlleur)</t>
-  </si>
-  <si>
-    <t>Calculer delta</t>
-  </si>
-  <si>
-    <t>Changer le x et y</t>
-  </si>
-  <si>
-    <t>Afficher les pions</t>
-  </si>
-  <si>
-    <t>ChangementPosition (Pion)</t>
-  </si>
-  <si>
-    <t>Changer les x et y selon vitesse</t>
-  </si>
-  <si>
-    <t>collisions (Pion)</t>
-  </si>
-  <si>
-    <t>Vérifier les collisions avec la fin du terrain</t>
-  </si>
-  <si>
-    <t>Changer position selon collisions</t>
-  </si>
-  <si>
-    <t>Ajout collision avec Pion</t>
-  </si>
-  <si>
-    <t>Afficher le temps (Pop-up)</t>
-  </si>
-  <si>
-    <t>Bouton ok</t>
-  </si>
-  <si>
-    <t>Ajout collision (carré)</t>
-  </si>
-  <si>
-    <t>Ajout collision (Pion)</t>
-  </si>
-  <si>
-    <t>Ajouter l'affichage des bordures</t>
-  </si>
-  <si>
-    <t>collisions (dans Carre)</t>
-  </si>
-  <si>
-    <t>collision avec bordure</t>
-  </si>
-  <si>
-    <t>collision (dans Carre)</t>
-  </si>
-  <si>
-    <t>Changer la vitesse (selon la vitesse actuelle)</t>
-  </si>
-  <si>
-    <t>Ajout changement de vitesse</t>
-  </si>
-  <si>
-    <t>Afficher un pop-up pour prendre les infos du joueur</t>
-  </si>
-  <si>
-    <t>Ajouter des boutons(Menu/recommencer)</t>
-  </si>
-  <si>
-    <t>SauvegaderHighscore</t>
-  </si>
-  <si>
-    <t>Faire la gestion du nombre de highscore conservés</t>
-  </si>
-  <si>
-    <t>Conserver le nouveau score (score de la session/highscore)</t>
-  </si>
-  <si>
-    <t>Écrire dans un fichier (CSV) les scores</t>
-  </si>
-  <si>
-    <t>Lire le fichier des highscores</t>
-  </si>
-  <si>
-    <t>Afficher les boutons du menu</t>
-  </si>
-  <si>
-    <t>Faire la gestion d'événements (boutons)</t>
-  </si>
-  <si>
-    <t>Afficher les highscores qui sont dans la liste</t>
-  </si>
-  <si>
-    <t>Afficher un bouton Menu</t>
-  </si>
-  <si>
-    <t>Afficher les boutons (Menu/Confirmer)</t>
-  </si>
-  <si>
-    <t>Changer les options dans le modèle</t>
-  </si>
-  <si>
-    <t>Binder le mouseMotion</t>
-  </si>
-  <si>
     <t>Très importante</t>
   </si>
   <si>
@@ -733,7 +538,19 @@
     <t>Antoine</t>
   </si>
   <si>
-    <t>Antoine Alex</t>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Antoine/Laurence</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>Laurence/Francis</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1448,16 +1265,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1475,9 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,217 +1647,217 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
     </row>
     <row r="20" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -2098,7 +1916,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="121" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -2112,7 +1930,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="118"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="45" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +1942,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="118"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="45" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +1954,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="118"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="45" t="s">
         <v>44</v>
       </c>
@@ -2148,7 +1966,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="118"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="45" t="s">
         <v>52</v>
       </c>
@@ -2160,7 +1978,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="118"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
@@ -2172,7 +1990,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="118"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="45" t="s">
         <v>56</v>
       </c>
@@ -2184,7 +2002,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="118"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="45" t="s">
         <v>58</v>
       </c>
@@ -2194,7 +2012,7 @@
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="118"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="45" t="s">
         <v>59</v>
       </c>
@@ -2204,7 +2022,7 @@
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="118"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="45" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2032,7 @@
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="118"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +2042,7 @@
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="118"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="45" t="s">
         <v>63</v>
       </c>
@@ -2234,7 +2052,7 @@
       <c r="F16" s="47"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="118"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="45" t="s">
         <v>64</v>
       </c>
@@ -2246,7 +2064,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="118"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="65" t="s">
         <v>70</v>
       </c>
@@ -2254,30 +2072,30 @@
       <c r="F18" s="47"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="118"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="45"/>
       <c r="E19" s="64"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="118"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="45"/>
       <c r="E20" s="64"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="118"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="45"/>
       <c r="F21" s="47"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="118"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="121" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -2287,7 +2105,7 @@
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="118"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="45" t="s">
         <v>79</v>
       </c>
@@ -2295,55 +2113,55 @@
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="118"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="118"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="118"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="118"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="118"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="118"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="118"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="118"/>
+      <c r="C32" s="121"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="121" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -2357,7 +2175,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="118"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="45" t="s">
         <v>69</v>
       </c>
@@ -2369,7 +2187,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="118"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="45" t="s">
         <v>71</v>
       </c>
@@ -2379,7 +2197,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="118"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="45" t="s">
         <v>78</v>
       </c>
@@ -2387,21 +2205,21 @@
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="118"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="118"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="118"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
@@ -2527,7 +2345,7 @@
   <dimension ref="B2:I85"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,17 +2357,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
@@ -2632,10 +2450,10 @@
       <c r="F17" s="83"/>
     </row>
     <row r="19" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
     </row>
     <row r="20" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67"/>
@@ -2764,10 +2582,10 @@
       <c r="F40" s="83"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="67"/>
@@ -2830,10 +2648,10 @@
       <c r="F52" s="83"/>
     </row>
     <row r="54" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
     </row>
     <row r="55" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="67"/>
@@ -2890,10 +2708,10 @@
       <c r="F63" s="83"/>
     </row>
     <row r="65" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
     </row>
     <row r="66" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="67"/>
@@ -2950,8 +2768,8 @@
       <c r="F74" s="83"/>
     </row>
     <row r="76" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="119"/>
-      <c r="C76" s="119"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="123"/>
       <c r="I76" s="95"/>
     </row>
     <row r="77" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2992,11 +2810,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:F42"/>
@@ -3004,6 +2817,11 @@
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
@@ -3278,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3289,16 +3107,16 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="52"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
     </row>
     <row r="3" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="61"/>
@@ -3848,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3870,35 +3688,35 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
     </row>
     <row r="8" spans="2:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3920,16 +3738,16 @@
     </row>
     <row r="10" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="126" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>82</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -3940,16 +3758,16 @@
     </row>
     <row r="11" spans="2:9" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -3961,16 +3779,16 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>84</v>
       </c>
       <c r="E12" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -3981,16 +3799,16 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>85</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -4001,16 +3819,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -4021,10 +3839,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>142</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="5"/>
@@ -4033,16 +3851,16 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>88</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -4053,16 +3871,16 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -4073,16 +3891,16 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>86</v>
       </c>
       <c r="E18" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -4093,16 +3911,16 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>87</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -4113,10 +3931,10 @@
     </row>
     <row r="20" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>223</v>
+        <v>153</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>158</v>
       </c>
       <c r="E20" s="116"/>
       <c r="F20" s="6"/>
@@ -4125,16 +3943,16 @@
     </row>
     <row r="21" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>90</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -4145,16 +3963,16 @@
     </row>
     <row r="22" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>94</v>
       </c>
       <c r="E22" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -4165,16 +3983,16 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>93</v>
       </c>
       <c r="E23" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -4185,16 +4003,16 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="E24" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -4205,16 +4023,16 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="128" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>95</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -4225,16 +4043,16 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="127" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>96</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -4245,16 +4063,16 @@
     </row>
     <row r="27" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="127" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -4265,16 +4083,16 @@
     </row>
     <row r="28" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>140</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -4285,16 +4103,16 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -4305,16 +4123,16 @@
     </row>
     <row r="30" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>98</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -4325,16 +4143,16 @@
     </row>
     <row r="31" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="127" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>99</v>
       </c>
       <c r="E31" s="106" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -4345,16 +4163,16 @@
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>167</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>102</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -4365,14 +4183,14 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="127" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>131</v>
       </c>
       <c r="E33" s="107"/>
       <c r="F33" s="6" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -4383,16 +4201,16 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="127" t="s">
         <v>157</v>
       </c>
+      <c r="D34" s="118" t="s">
+        <v>92</v>
+      </c>
       <c r="E34" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -4403,13 +4221,13 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="127" t="s">
-        <v>212</v>
+        <v>157</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>147</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
@@ -4419,13 +4237,13 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="127" t="s">
-        <v>210</v>
+        <v>156</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>145</v>
       </c>
       <c r="E36" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -4433,16 +4251,16 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="127" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>101</v>
       </c>
       <c r="E37" s="107" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -4453,16 +4271,16 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="127" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>103</v>
       </c>
       <c r="E38" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -4473,13 +4291,13 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D39" s="103" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="G39" s="5">
         <v>2</v>
@@ -4489,14 +4307,17 @@
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="127" t="s">
-        <v>181</v>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>116</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="G40" s="5">
         <v>2</v>
@@ -4506,14 +4327,17 @@
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D41" s="103" t="s">
-        <v>182</v>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>117</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G41" s="5">
         <v>2</v>
@@ -4523,14 +4347,17 @@
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D42" s="103" t="s">
-        <v>183</v>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>118</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
@@ -4541,16 +4368,16 @@
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G43" s="5">
         <v>2</v>
@@ -4561,16 +4388,16 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="D44" s="103" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="E44" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="G44" s="5">
         <v>2</v>
@@ -4580,14 +4407,17 @@
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
       <c r="D45" s="103" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="G45" s="5">
         <v>2</v>
@@ -4597,14 +4427,14 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="127" t="s">
-        <v>187</v>
+      <c r="D46" s="118" t="s">
+        <v>122</v>
       </c>
       <c r="E46" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="G46" s="5">
         <v>2</v>
@@ -4615,13 +4445,13 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D47" s="103" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
@@ -4631,14 +4461,17 @@
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="103" t="s">
-        <v>189</v>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>124</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G48" s="5">
         <v>2</v>
@@ -4649,13 +4482,13 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D49" s="103" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E49" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G49" s="5">
         <v>2</v>
@@ -4666,16 +4499,16 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>191</v>
+        <v>163</v>
+      </c>
+      <c r="D50" s="118" t="s">
+        <v>126</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="G50" s="5">
         <v>2</v>
@@ -4686,13 +4519,13 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D51" s="104" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E51" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F51" s="105" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G51" s="5">
         <v>2</v>
@@ -4702,14 +4535,17 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
       <c r="D52" s="104" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="E52" s="107" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F52" s="105" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
@@ -4720,13 +4556,13 @@
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D53" s="104" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E53" s="108" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F53" s="105" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="G53" s="105">
         <v>3</v>
@@ -4737,13 +4573,13 @@
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D54" s="105" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E54" s="105" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F54" s="105" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="G54" s="105">
         <v>3</v>
@@ -4754,13 +4590,13 @@
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D55" s="5" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="G55" s="5">
         <v>3</v>
@@ -4771,13 +4607,13 @@
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D56" s="115" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="G56" s="5">
         <v>3</v>
@@ -4788,13 +4624,13 @@
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D57" s="115" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="G57" s="5">
         <v>3</v>
@@ -4805,16 +4641,16 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="115" t="s">
-        <v>211</v>
+        <v>163</v>
+      </c>
+      <c r="D58" s="129" t="s">
+        <v>146</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="G58" s="5">
         <v>3</v>
@@ -4824,20 +4660,23 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="115" t="s">
-        <v>213</v>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="129" t="s">
+        <v>148</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="G59" s="5">
         <v>3</v>
       </c>
       <c r="H59" s="114">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4855,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4939,9 +4778,7 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="B7" s="32"/>
       <c r="C7" s="10"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
@@ -4958,9 +4795,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="63"/>
@@ -4975,9 +4810,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
-      <c r="C9" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="38"/>
       <c r="F9" s="63"/>
@@ -4992,9 +4825,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="37"/>
-      <c r="C10" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="38"/>
       <c r="F10" s="63"/>
@@ -5010,9 +4841,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="38"/>
       <c r="F11" s="63"/>
@@ -5028,9 +4857,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="38"/>
       <c r="F12" s="63"/>
@@ -5045,9 +4872,6 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
-      <c r="B13" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C13" s="10"/>
       <c r="E13" s="36"/>
       <c r="F13" s="63"/>
@@ -5058,9 +4882,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="C14" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="109"/>
       <c r="E14" s="112"/>
       <c r="F14" s="63"/>
@@ -5071,9 +4893,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
-      <c r="C15" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="109"/>
       <c r="E15" s="112"/>
       <c r="F15" s="63"/>
@@ -5084,9 +4904,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
-      <c r="C16" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="109"/>
       <c r="E16" s="112"/>
       <c r="F16" s="63"/>
@@ -5097,9 +4915,6 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
-      <c r="B17" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="109"/>
       <c r="E17" s="112"/>
@@ -5111,9 +4926,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
-      <c r="C18" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="109"/>
       <c r="E18" s="112"/>
       <c r="F18" s="63"/>
@@ -5124,9 +4937,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="C19" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="109"/>
       <c r="E19" s="112"/>
       <c r="F19" s="63"/>
@@ -5137,9 +4948,6 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="109"/>
       <c r="E20" s="112"/>
@@ -5151,9 +4959,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="C21" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="109"/>
       <c r="E21" s="112"/>
       <c r="F21" s="63"/>
@@ -5164,9 +4970,6 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="109"/>
       <c r="E22" s="112"/>
@@ -5178,9 +4981,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
-      <c r="C23" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="109"/>
       <c r="E23" s="112"/>
       <c r="F23" s="63"/>
@@ -5191,9 +4992,6 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
-      <c r="B24" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="109"/>
       <c r="E24" s="112"/>
@@ -5205,9 +5003,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
-      <c r="C25" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="109"/>
       <c r="E25" s="112"/>
       <c r="F25" s="63"/>
@@ -5218,9 +5014,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
-      <c r="C26" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="109"/>
       <c r="E26" s="112"/>
       <c r="F26" s="63"/>
@@ -5231,9 +5025,6 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
-      <c r="B27" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="109"/>
       <c r="E27" s="112"/>
@@ -5245,9 +5036,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="109"/>
       <c r="E28" s="112"/>
       <c r="F28" s="63"/>
@@ -5258,9 +5047,6 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
-      <c r="B29" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="109"/>
       <c r="E29" s="112"/>
@@ -5272,9 +5058,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
-      <c r="C30" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="109"/>
       <c r="E30" s="112"/>
       <c r="F30" s="63"/>
@@ -5285,9 +5069,6 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
-      <c r="B31" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="109"/>
       <c r="E31" s="112"/>
@@ -5299,9 +5080,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
-      <c r="C32" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="109"/>
       <c r="E32" s="112"/>
       <c r="F32" s="63"/>
@@ -5312,9 +5091,6 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
-      <c r="B33" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="109"/>
       <c r="E33" s="112"/>
@@ -5326,9 +5102,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
-      <c r="C34" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="109"/>
       <c r="E34" s="112"/>
       <c r="F34" s="63"/>
@@ -5339,9 +5113,6 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
-      <c r="B35" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="109"/>
       <c r="E35" s="112"/>
@@ -5353,9 +5124,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
-      <c r="C36" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="109"/>
       <c r="E36" s="112"/>
       <c r="F36" s="63"/>
@@ -5366,9 +5135,6 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
-      <c r="B37" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C37" s="10"/>
       <c r="D37" s="109"/>
       <c r="E37" s="112"/>
@@ -5380,9 +5146,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
-      <c r="C38" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="109"/>
       <c r="E38" s="112"/>
       <c r="F38" s="63"/>
@@ -5393,9 +5157,6 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="36"/>
-      <c r="B39" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C39" s="10"/>
       <c r="D39" s="109"/>
       <c r="E39" s="112"/>
@@ -5407,9 +5168,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="36"/>
-      <c r="C40" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="109"/>
       <c r="E40" s="112"/>
       <c r="F40" s="63"/>
@@ -5420,9 +5179,6 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
-      <c r="B41" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C41" s="10"/>
       <c r="D41" s="109"/>
       <c r="E41" s="36"/>
@@ -5434,9 +5190,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
-      <c r="C42" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="109"/>
       <c r="E42" s="112"/>
       <c r="F42" s="63"/>
@@ -5448,9 +5202,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
-      <c r="C43" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="109"/>
       <c r="E43" s="112"/>
       <c r="F43" s="63"/>
@@ -5462,9 +5214,6 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
-      <c r="B44" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="109"/>
       <c r="E44" s="112"/>
@@ -5477,9 +5226,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
-      <c r="C45" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="109"/>
       <c r="E45" s="112"/>
       <c r="F45" s="63"/>
@@ -5491,9 +5238,6 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
-      <c r="B46" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" s="10"/>
       <c r="D46" s="109"/>
       <c r="E46" s="112"/>
@@ -5505,9 +5249,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="36"/>
-      <c r="C47" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="C47" s="10"/>
       <c r="D47" s="109"/>
       <c r="E47" s="112"/>
       <c r="F47" s="63"/>
@@ -5519,9 +5261,6 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
-      <c r="B48" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C48" s="10"/>
       <c r="D48" s="109"/>
       <c r="E48" s="112"/>
@@ -5534,9 +5273,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
-      <c r="C49" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="109"/>
       <c r="E49" s="112"/>
       <c r="F49" s="63"/>
@@ -5548,9 +5285,6 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
-      <c r="B50" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="C50" s="10"/>
       <c r="D50" s="109"/>
       <c r="E50" s="112"/>
@@ -5563,9 +5297,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
-      <c r="C51" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="C51" s="10"/>
       <c r="D51" s="109"/>
       <c r="E51" s="112"/>
       <c r="F51" s="63"/>
@@ -5577,9 +5309,6 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
-      <c r="B52" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="C52" s="10"/>
       <c r="D52" s="109"/>
       <c r="E52" s="36"/>
@@ -5590,9 +5319,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
-      <c r="C53" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="C53" s="10"/>
       <c r="D53" s="109"/>
       <c r="E53" s="112"/>
       <c r="F53" s="63"/>
@@ -5604,9 +5331,6 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
-      <c r="B54" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C54" s="10"/>
       <c r="D54" s="109"/>
       <c r="E54" s="112"/>
@@ -5616,9 +5340,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="36"/>
-      <c r="C55" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="C55" s="10"/>
       <c r="D55" s="109"/>
       <c r="E55" s="112"/>
       <c r="H55" s="36"/>
@@ -5629,9 +5351,6 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
-      <c r="B56" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C56" s="10"/>
       <c r="D56" s="109"/>
       <c r="E56" s="36"/>
@@ -5643,9 +5362,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="36"/>
-      <c r="C57" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="109"/>
       <c r="E57" s="112"/>
       <c r="H57" s="36"/>
@@ -5656,9 +5373,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="36"/>
-      <c r="C58" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="109"/>
       <c r="E58" s="112"/>
       <c r="H58" s="36"/>
@@ -5669,9 +5384,6 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="36"/>
-      <c r="B59" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C59" s="10"/>
       <c r="D59" s="109"/>
       <c r="E59" s="112"/>
@@ -5683,9 +5395,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
-      <c r="C60" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="C60" s="10"/>
       <c r="D60" s="109"/>
       <c r="E60" s="112"/>
       <c r="H60" s="36"/>
@@ -5696,9 +5406,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="36"/>
-      <c r="C61" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="C61" s="10"/>
       <c r="D61" s="109"/>
       <c r="E61" s="112"/>
       <c r="H61" s="36"/>
@@ -5709,9 +5417,6 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="36"/>
-      <c r="B62" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="C62" s="10"/>
       <c r="D62" s="109"/>
       <c r="E62" s="112"/>
@@ -5723,9 +5428,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="36"/>
-      <c r="C63" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="109"/>
       <c r="E63" s="112"/>
       <c r="H63" s="36"/>
@@ -5736,9 +5439,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="36"/>
-      <c r="C64" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="109"/>
       <c r="E64" s="112"/>
       <c r="H64" s="36"/>
@@ -5749,9 +5450,6 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="36"/>
-      <c r="B65" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C65" s="10"/>
       <c r="D65" s="109"/>
       <c r="E65" s="112"/>
@@ -5763,9 +5461,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="36"/>
-      <c r="C66" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="C66" s="10"/>
       <c r="D66" s="109"/>
       <c r="E66" s="112"/>
       <c r="H66" s="36"/>
@@ -5776,9 +5472,6 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
-      <c r="B67" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="C67" s="10"/>
       <c r="D67" s="109"/>
       <c r="E67" s="112"/>
@@ -5790,9 +5483,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="36"/>
-      <c r="C68" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="C68" s="10"/>
       <c r="D68" s="109"/>
       <c r="E68" s="112"/>
       <c r="H68" s="36"/>
@@ -5803,9 +5494,6 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
-      <c r="B69" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" s="10"/>
       <c r="D69" s="109"/>
       <c r="E69" s="112"/>
@@ -5817,9 +5505,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="36"/>
-      <c r="C70" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="C70" s="10"/>
       <c r="D70" s="109"/>
       <c r="E70" s="112"/>
       <c r="H70" s="36"/>
@@ -5830,9 +5516,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="36"/>
-      <c r="C71" s="10" t="s">
-        <v>142</v>
-      </c>
+      <c r="C71" s="10"/>
       <c r="D71" s="109"/>
       <c r="E71" s="112"/>
       <c r="H71" s="36"/>
@@ -5843,9 +5527,6 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="36"/>
-      <c r="B72" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="10"/>
       <c r="D72" s="109"/>
       <c r="E72" s="112"/>
@@ -5856,9 +5537,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
-      <c r="C73" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="C73" s="10"/>
       <c r="D73" s="109"/>
       <c r="E73" s="112"/>
       <c r="H73" s="36"/>
@@ -5869,9 +5548,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="36"/>
-      <c r="C74" s="10" t="s">
-        <v>142</v>
-      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="109"/>
       <c r="E74" s="112"/>
       <c r="H74" s="36"/>
@@ -5882,9 +5559,6 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="36"/>
-      <c r="B75" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C75" s="10"/>
       <c r="D75" s="109"/>
       <c r="E75" s="112"/>
@@ -5896,9 +5570,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="36"/>
-      <c r="C76" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="109"/>
       <c r="E76" s="112"/>
       <c r="H76" s="36"/>
@@ -5909,9 +5581,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="36"/>
-      <c r="C77" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="C77" s="10"/>
       <c r="D77" s="109"/>
       <c r="E77" s="112"/>
       <c r="H77" s="36"/>
@@ -5922,9 +5592,6 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="36"/>
-      <c r="B78" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="C78" s="10"/>
       <c r="D78" s="109"/>
       <c r="E78" s="112"/>
@@ -5936,9 +5603,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
-      <c r="C79" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="109"/>
       <c r="E79" s="112"/>
       <c r="H79" s="36"/>
